--- a/biology/Zoologie/Chat_sauvage_de_Gordon/Chat_sauvage_de_Gordon.xlsx
+++ b/biology/Zoologie/Chat_sauvage_de_Gordon/Chat_sauvage_de_Gordon.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Felis silvestris gordoni
 Le Chat sauvage de Gordon (Felis silvestris gordoni, en arabe gatt al barra) est une sous-espèce de chats sauvages de la famille des Felidae.
@@ -512,9 +524,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'individu de référence fut trouvé à Oman par le major A. C. G. Gordon, dont on sait peu de choses[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'individu de référence fut trouvé à Oman par le major A. C. G. Gordon, dont on sait peu de choses.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il est de la même taille que le chat domestique. Son pelage est de couleur rousse à sable ou de brun-fauve à gris. Il est marqué de légères rayures plus foncées. Sa queue se termine par trois anneaux noirs avec une pointe entièrement noire[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est de la même taille que le chat domestique. Son pelage est de couleur rousse à sable ou de brun-fauve à gris. Il est marqué de légères rayures plus foncées. Sa queue se termine par trois anneaux noirs avec une pointe entièrement noire.
 </t>
         </is>
       </c>
@@ -574,7 +590,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Il se rencontre dans la péninsule Arabique, principalement dans les déserts de Nubie, du Sahara et d'Arabie. Il évolue dans les zones montagneuses ou les rivières asséchées.
 </t>
@@ -605,7 +623,9 @@
           <t>Comportement</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Le chat de Gordoni est un chasseur nocturne, solitaire sauf pendant les périodes d'accouplement. Son régime est essentiellement carnivore.
 </t>
@@ -636,7 +656,9 @@
           <t>Reproduction</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">La gestation dure de 56 à 63 jours avec une mise-bas entre janvier et mars. Il y a un à cinq petits par portée.
 </t>
@@ -667,7 +689,9 @@
           <t>Menaces</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">La menace principale est le croisement avec d'autres chats sauvages ou domestiques.
 </t>
